--- a/amazon_scraping_items/itemList.xlsx
+++ b/amazon_scraping_items/itemList.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="iPad" sheetId="4" r:id="rId1"/>
+    <sheet name="PC" sheetId="4" r:id="rId1"/>
     <sheet name="drone" sheetId="3" r:id="rId2"/>
     <sheet name="iPhone" sheetId="2" r:id="rId3"/>
     <sheet name="list" sheetId="1" r:id="rId4"/>
@@ -30,7 +30,7 @@
     <t>iPhone</t>
   </si>
   <si>
-    <t>iPad</t>
+    <t>PC</t>
   </si>
   <si>
     <t>Name of product</t>
@@ -51,67 +51,67 @@
     <t>Holy Stone GPS FPV RC Drone HS100 with Camera Live Video and GPS Return Home Quadcopter with Adjustable Wide-Angle 720P HD WIFI Camera- Follow Me, Altitude Hold, Intelligent Battery Long Control Range</t>
   </si>
   <si>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Adjustable-Intelligent/dp/B074YYVXQH/ref=sr_1_4?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-4&amp;keywords=drone</t>
+  </si>
+  <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
     <t>Drone With Camera Live Video, EACHINE E58 WIFI FPV Quadcopter With 120° Wide-angle 720P HD Camera Foldable Drone RTF - Altitude Hold, One Key Take Off/Landing, 3D Flip, APP Control, Gravity Sensor</t>
   </si>
   <si>
+    <t>https://www.amazon.com/Camera-EACHINE-Quadcopter-Wide-angle-Foldable/dp/B0776QJNS3/ref=sr_1_5?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-5&amp;keywords=drone</t>
+  </si>
+  <si>
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
     <t>Holy Stone HS170 Predator Mini RC Helicopter Drone 2.4Ghz 6-Axis Gyro 4 Channels Quadcopter Good Choice for Drone Training</t>
   </si>
   <si>
+    <t>https://www.amazon.com/Holy-Stone-Predator-Helicopter-Quadcopter/dp/B0157IHJMQ/ref=sr_1_6?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-6&amp;keywords=drone</t>
+  </si>
+  <si>
     <t>4.4 out of 5 stars</t>
   </si>
   <si>
     <t>Holy Stone HS160 Shadow FPV RC Drone with 720P HD Wi-Fi Camera Live Video Feed 2.4GHz 6-Axis Gyro Quadcopter for Kids &amp; Beginners - Altitude Hold, One Key Start, Foldable Arms,Bonus Battery</t>
   </si>
   <si>
+    <t>https://www.amazon.com/Holy-Stone-Shadow-Quadcopter-Beginners/dp/B074S2HK59/ref=sr_1_7?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-7&amp;keywords=drone</t>
+  </si>
+  <si>
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
     <t>DROCON Drone For Beginners X708W Wi-Fi FPV Training Quadcopter With HD Camera Equipped With Headless Mode One Key Return Easy Operation</t>
   </si>
   <si>
+    <t>https://www.amazon.com/DROCON-Beginners-Training-Quadcopter-Operation/dp/B073HYDPT3/ref=sr_1_8?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-8&amp;keywords=drone</t>
+  </si>
+  <si>
     <t>3.9 out of 5 stars</t>
   </si>
   <si>
     <t>Cheerwing Syma X5SW-V3 FPV Explorers2 2.4Ghz 4CH 6-Axis Gyro RC Headless Quadcopter Drone UFO with HD Wifi Camera (White)</t>
   </si>
   <si>
+    <t>https://www.amazon.com/Cheerwing-X5SW-V3-Explorers2-Headless-Quadcopter/dp/B011JV9HA2/ref=sr_1_10?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-10&amp;keywords=drone</t>
+  </si>
+  <si>
     <t>3.7 out of 5 stars</t>
   </si>
   <si>
     <t>LBLA FPV Drone with Wifi Camera Live Video Headless Mode 2.4GHz 4 CH 6 Axis Gyro RTF RC Quadcopter, Compatible with 3D VR Headset</t>
   </si>
   <si>
+    <t>https://www.amazon.com/LBLA-Headless-Quadcopter-Compatible-Headset/dp/B077BZQ8JZ/ref=sr_1_12?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-12&amp;keywords=drone</t>
+  </si>
+  <si>
     <t>Holy Stone F181C RC Quadcopter Drone with HD Camera RTF 4 Channel 2.4GHz 6-Gyro with Altitude Hold Function,Headless Mode and One Key Return Home, Color Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Adjustable-Intelligent/dp/B074YYVXQH/ref=sr_1_4?s=toys-and-games&amp;ie=UTF8&amp;qid=1527884986&amp;sr=1-4&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Camera-EACHINE-Quadcopter-Wide-angle-Foldable/dp/B0776QJNS3/ref=sr_1_5?s=toys-and-games&amp;ie=UTF8&amp;qid=1527884986&amp;sr=1-5&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Holy-Stone-Predator-Helicopter-Quadcopter/dp/B0157IHJMQ/ref=sr_1_6?s=toys-and-games&amp;ie=UTF8&amp;qid=1527884986&amp;sr=1-6&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Holy-Stone-Shadow-Quadcopter-Beginners/dp/B074S2HK59/ref=sr_1_7?s=toys-and-games&amp;ie=UTF8&amp;qid=1527884986&amp;sr=1-7&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/DROCON-Beginners-Training-Quadcopter-Operation/dp/B073HYDPT3/ref=sr_1_8?s=toys-and-games&amp;ie=UTF8&amp;qid=1527884986&amp;sr=1-8&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cheerwing-X5SW-V3-Explorers2-Headless-Quadcopter/dp/B011JV9HA2/ref=sr_1_10?s=toys-and-games&amp;ie=UTF8&amp;qid=1527884986&amp;sr=1-10&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/LBLA-Headless-Quadcopter-Compatible-Headset/dp/B077BZQ8JZ/ref=sr_1_12?s=toys-and-games&amp;ie=UTF8&amp;qid=1527884986&amp;sr=1-12&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1527884986&amp;sr=1-16&amp;keywords=drone</t>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-16&amp;keywords=drone</t>
   </si>
 </sst>
 </file>
@@ -458,10 +458,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>930</v>
@@ -472,13 +472,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>226</v>
@@ -489,13 +489,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>4463</v>
@@ -506,16 +506,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E5">
         <v>99</v>
@@ -523,16 +523,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E6">
         <v>59</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>4631</v>
+        <v>4629</v>
       </c>
       <c r="E7">
         <v>26</v>
@@ -551,13 +551,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>1511</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>1174</v>
@@ -579,13 +579,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>54</v>
@@ -596,16 +596,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E11">
         <v>99</v>
@@ -646,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>930</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3">
         <v>226</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1">
         <v>4463</v>
@@ -694,16 +694,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E5">
         <v>99</v>
@@ -711,16 +711,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E6">
         <v>59</v>
@@ -728,10 +728,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>4631</v>
+        <v>4629</v>
       </c>
       <c r="E7">
         <v>26</v>
@@ -739,13 +739,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="1">
         <v>1511</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
         <v>1174</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D10">
         <v>54</v>
@@ -784,16 +784,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>3000</v>
+        <v>3001</v>
       </c>
       <c r="E11">
         <v>99</v>
@@ -821,7 +821,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/amazon_scraping_items/itemList.xlsx
+++ b/amazon_scraping_items/itemList.xlsx
@@ -51,67 +51,67 @@
     <t>Holy Stone GPS FPV RC Drone HS100 with Camera Live Video and GPS Return Home Quadcopter with Adjustable Wide-Angle 720P HD WIFI Camera- Follow Me, Altitude Hold, Intelligent Battery Long Control Range</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Adjustable-Intelligent/dp/B074YYVXQH/ref=sr_1_4?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-4&amp;keywords=drone</t>
-  </si>
-  <si>
     <t>4.6 out of 5 stars</t>
   </si>
   <si>
     <t>Drone With Camera Live Video, EACHINE E58 WIFI FPV Quadcopter With 120° Wide-angle 720P HD Camera Foldable Drone RTF - Altitude Hold, One Key Take Off/Landing, 3D Flip, APP Control, Gravity Sensor</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Camera-EACHINE-Quadcopter-Wide-angle-Foldable/dp/B0776QJNS3/ref=sr_1_5?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-5&amp;keywords=drone</t>
-  </si>
-  <si>
     <t>4.2 out of 5 stars</t>
   </si>
   <si>
     <t>Holy Stone HS170 Predator Mini RC Helicopter Drone 2.4Ghz 6-Axis Gyro 4 Channels Quadcopter Good Choice for Drone Training</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Holy-Stone-Predator-Helicopter-Quadcopter/dp/B0157IHJMQ/ref=sr_1_6?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-6&amp;keywords=drone</t>
-  </si>
-  <si>
     <t>4.4 out of 5 stars</t>
   </si>
   <si>
     <t>Holy Stone HS160 Shadow FPV RC Drone with 720P HD Wi-Fi Camera Live Video Feed 2.4GHz 6-Axis Gyro Quadcopter for Kids &amp; Beginners - Altitude Hold, One Key Start, Foldable Arms,Bonus Battery</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Holy-Stone-Shadow-Quadcopter-Beginners/dp/B074S2HK59/ref=sr_1_7?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-7&amp;keywords=drone</t>
-  </si>
-  <si>
     <t>4.3 out of 5 stars</t>
   </si>
   <si>
     <t>DROCON Drone For Beginners X708W Wi-Fi FPV Training Quadcopter With HD Camera Equipped With Headless Mode One Key Return Easy Operation</t>
   </si>
   <si>
-    <t>https://www.amazon.com/DROCON-Beginners-Training-Quadcopter-Operation/dp/B073HYDPT3/ref=sr_1_8?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-8&amp;keywords=drone</t>
-  </si>
-  <si>
     <t>3.9 out of 5 stars</t>
   </si>
   <si>
     <t>Cheerwing Syma X5SW-V3 FPV Explorers2 2.4Ghz 4CH 6-Axis Gyro RC Headless Quadcopter Drone UFO with HD Wifi Camera (White)</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Cheerwing-X5SW-V3-Explorers2-Headless-Quadcopter/dp/B011JV9HA2/ref=sr_1_10?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-10&amp;keywords=drone</t>
-  </si>
-  <si>
     <t>3.7 out of 5 stars</t>
   </si>
   <si>
     <t>LBLA FPV Drone with Wifi Camera Live Video Headless Mode 2.4GHz 4 CH 6 Axis Gyro RTF RC Quadcopter, Compatible with 3D VR Headset</t>
   </si>
   <si>
-    <t>https://www.amazon.com/LBLA-Headless-Quadcopter-Compatible-Headset/dp/B077BZQ8JZ/ref=sr_1_12?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-12&amp;keywords=drone</t>
-  </si>
-  <si>
     <t>Holy Stone F181C RC Quadcopter Drone with HD Camera RTF 4 Channel 2.4GHz 6-Gyro with Altitude Hold Function,Headless Mode and One Key Return Home, Color Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1527885793&amp;sr=1-16&amp;keywords=drone</t>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Adjustable-Intelligent/dp/B074YYVXQH/ref=sr_1_4?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-4&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Camera-EACHINE-Quadcopter-Wide-angle-Foldable/dp/B0776QJNS3/ref=sr_1_5?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-5&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Predator-Helicopter-Quadcopter/dp/B0157IHJMQ/ref=sr_1_6?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-6&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Shadow-Quadcopter-Beginners/dp/B074S2HK59/ref=sr_1_7?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-7&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DROCON-Beginners-Training-Quadcopter-Operation/dp/B073HYDPT3/ref=sr_1_8?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-8&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cheerwing-X5SW-V3-Explorers2-Headless-Quadcopter/dp/B011JV9HA2/ref=sr_1_10?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-10&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/LBLA-Headless-Quadcopter-Compatible-Headset/dp/B077BZQ8JZ/ref=sr_1_12?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-12&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-16&amp;keywords=drone</t>
   </si>
 </sst>
 </file>
@@ -458,10 +458,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>930</v>
@@ -472,13 +472,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3">
         <v>226</v>
@@ -489,13 +489,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>4463</v>
@@ -506,13 +506,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1011</v>
@@ -523,13 +523,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>737</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>4629</v>
@@ -551,13 +551,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>1511</v>
@@ -568,7 +568,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>1174</v>
@@ -579,13 +579,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>54</v>
@@ -596,13 +596,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
         <v>3001</v>
@@ -646,10 +646,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
       </c>
       <c r="D2">
         <v>930</v>
@@ -660,13 +660,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3">
         <v>226</v>
@@ -677,13 +677,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1">
         <v>4463</v>
@@ -694,13 +694,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1">
         <v>1011</v>
@@ -711,13 +711,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6">
         <v>737</v>
@@ -728,7 +728,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1">
         <v>4629</v>
@@ -739,13 +739,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1">
         <v>1511</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D9" s="1">
         <v>1174</v>
@@ -767,13 +767,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D10">
         <v>54</v>
@@ -784,13 +784,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
         <v>3001</v>

--- a/amazon_scraping_items/itemList.xlsx
+++ b/amazon_scraping_items/itemList.xlsx
@@ -90,28 +90,28 @@
     <t>Holy Stone F181C RC Quadcopter Drone with HD Camera RTF 4 Channel 2.4GHz 6-Gyro with Altitude Hold Function,Headless Mode and One Key Return Home, Color Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Adjustable-Intelligent/dp/B074YYVXQH/ref=sr_1_4?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-4&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Camera-EACHINE-Quadcopter-Wide-angle-Foldable/dp/B0776QJNS3/ref=sr_1_5?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-5&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Holy-Stone-Predator-Helicopter-Quadcopter/dp/B0157IHJMQ/ref=sr_1_6?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-6&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Holy-Stone-Shadow-Quadcopter-Beginners/dp/B074S2HK59/ref=sr_1_7?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-7&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/DROCON-Beginners-Training-Quadcopter-Operation/dp/B073HYDPT3/ref=sr_1_8?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-8&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cheerwing-X5SW-V3-Explorers2-Headless-Quadcopter/dp/B011JV9HA2/ref=sr_1_10?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-10&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/LBLA-Headless-Quadcopter-Compatible-Headset/dp/B077BZQ8JZ/ref=sr_1_12?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-12&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886567&amp;sr=1-16&amp;keywords=drone</t>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Adjustable-Intelligent/dp/B074YYVXQH/ref=sr_1_4?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-4&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Camera-EACHINE-Quadcopter-Wide-angle-Foldable/dp/B0776QJNS3/ref=sr_1_5?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-5&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Predator-Helicopter-Quadcopter/dp/B0157IHJMQ/ref=sr_1_6?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-6&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Shadow-Quadcopter-Beginners/dp/B074S2HK59/ref=sr_1_7?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-7&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DROCON-Beginners-Training-Quadcopter-Operation/dp/B073HYDPT3/ref=sr_1_8?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-8&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cheerwing-X5SW-V3-Explorers2-Headless-Quadcopter/dp/B011JV9HA2/ref=sr_1_10?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-10&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/LBLA-Headless-Quadcopter-Compatible-Headset/dp/B077BZQ8JZ/ref=sr_1_12?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-12&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-16&amp;keywords=drone</t>
   </si>
 </sst>
 </file>

--- a/amazon_scraping_items/itemList.xlsx
+++ b/amazon_scraping_items/itemList.xlsx
@@ -90,28 +90,28 @@
     <t>Holy Stone F181C RC Quadcopter Drone with HD Camera RTF 4 Channel 2.4GHz 6-Gyro with Altitude Hold Function,Headless Mode and One Key Return Home, Color Black</t>
   </si>
   <si>
-    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Adjustable-Intelligent/dp/B074YYVXQH/ref=sr_1_4?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-4&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Camera-EACHINE-Quadcopter-Wide-angle-Foldable/dp/B0776QJNS3/ref=sr_1_5?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-5&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Holy-Stone-Predator-Helicopter-Quadcopter/dp/B0157IHJMQ/ref=sr_1_6?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-6&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Holy-Stone-Shadow-Quadcopter-Beginners/dp/B074S2HK59/ref=sr_1_7?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-7&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/DROCON-Beginners-Training-Quadcopter-Operation/dp/B073HYDPT3/ref=sr_1_8?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-8&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Cheerwing-X5SW-V3-Explorers2-Headless-Quadcopter/dp/B011JV9HA2/ref=sr_1_10?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-10&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/LBLA-Headless-Quadcopter-Compatible-Headset/dp/B077BZQ8JZ/ref=sr_1_12?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-12&amp;keywords=drone</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886721&amp;sr=1-16&amp;keywords=drone</t>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Adjustable-Intelligent/dp/B074YYVXQH/ref=sr_1_4?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886937&amp;sr=1-4&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Camera-EACHINE-Quadcopter-Wide-angle-Foldable/dp/B0776QJNS3/ref=sr_1_5?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886937&amp;sr=1-5&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Predator-Helicopter-Quadcopter/dp/B0157IHJMQ/ref=sr_1_6?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886937&amp;sr=1-6&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Shadow-Quadcopter-Beginners/dp/B074S2HK59/ref=sr_1_7?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886937&amp;sr=1-7&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DROCON-Beginners-Training-Quadcopter-Operation/dp/B073HYDPT3/ref=sr_1_8?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886937&amp;sr=1-8&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cheerwing-X5SW-V3-Explorers2-Headless-Quadcopter/dp/B011JV9HA2/ref=sr_1_10?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886937&amp;sr=1-10&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/LBLA-Headless-Quadcopter-Compatible-Headset/dp/B077BZQ8JZ/ref=sr_1_12?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886937&amp;sr=1-12&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886937&amp;sr=1-16&amp;keywords=drone</t>
   </si>
 </sst>
 </file>

--- a/amazon_scraping_items/itemList.xlsx
+++ b/amazon_scraping_items/itemList.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="40">
   <si>
     <t>drone</t>
   </si>
@@ -112,6 +112,36 @@
   </si>
   <si>
     <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_16?s=toys-and-games&amp;ie=UTF8&amp;qid=1527886937&amp;sr=1-16&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Predator-Helicopter-Quadcopter/dp/B0157IHJMQ/ref=sr_1_4?s=toys-and-games&amp;ie=UTF8&amp;qid=1528131930&amp;sr=1-4&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Adjustable-Intelligent/dp/B074YYVXQH/ref=sr_1_5?s=toys-and-games&amp;ie=UTF8&amp;qid=1528131930&amp;sr=1-5&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Shadow-Quadcopter-Beginners/dp/B074S2HK59/ref=sr_1_6?s=toys-and-games&amp;ie=UTF8&amp;qid=1528131930&amp;sr=1-6&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Camera-EACHINE-Quadcopter-Wide-angle-Foldable/dp/B0776QJNS3/ref=sr_1_7?s=toys-and-games&amp;ie=UTF8&amp;qid=1528131930&amp;sr=1-7&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DROCON-Beginners-Training-Quadcopter-Operation/dp/B073HYDPT3/ref=sr_1_8?s=toys-and-games&amp;ie=UTF8&amp;qid=1528131930&amp;sr=1-8&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Cheerwing-X5SW-V3-Explorers2-Headless-Quadcopter/dp/B011JV9HA2/ref=sr_1_10?s=toys-and-games&amp;ie=UTF8&amp;qid=1528131930&amp;sr=1-10&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Holy-Stone-Quadcopter-Altitude-Function/dp/B00SAUAP5C/ref=sr_1_11?s=toys-and-games&amp;ie=UTF8&amp;qid=1528131930&amp;sr=1-11&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>Mini Quadcopter Drone, EACHINE E010 2.4GHz 6-Axis Gyro Remote Control Nano Drone for Kids Adults Beginners - Headless Mode, 3D Flip, One Key Return (Green)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Quadcopter-EACHINE-2-4GHz-Control-Beginners/dp/B01K9T54PC/ref=sr_1_12?s=toys-and-games&amp;ie=UTF8&amp;qid=1528131930&amp;sr=1-12&amp;keywords=drone</t>
+  </si>
+  <si>
+    <t>3.8 out of 5 stars</t>
   </si>
 </sst>
 </file>
@@ -643,70 +673,70 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>930</v>
+        <v>13</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4472</v>
       </c>
       <c r="E2">
-        <v>279</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>226</v>
+        <v>930</v>
       </c>
       <c r="E3">
-        <v>79</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>4463</v>
+        <v>1015</v>
       </c>
       <c r="E4">
-        <v>39</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>1011</v>
+        <v>226</v>
       </c>
       <c r="E5">
-        <v>99</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -714,13 +744,13 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>737</v>
+        <v>744</v>
       </c>
       <c r="E6">
         <v>59</v>
@@ -731,10 +761,10 @@
         <v>17</v>
       </c>
       <c r="D7" s="1">
-        <v>4629</v>
+        <v>4633</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -742,61 +772,58 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="1">
-        <v>1511</v>
+        <v>1513</v>
       </c>
       <c r="E8">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>1174</v>
+        <v>3008</v>
       </c>
       <c r="E9">
-        <v>479</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10">
-        <v>54</v>
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1698</v>
       </c>
       <c r="E10">
-        <v>54</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D11" s="1">
-        <v>3001</v>
-      </c>
-      <c r="E11">
-        <v>99</v>
+        <v>1175</v>
       </c>
     </row>
   </sheetData>
